--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.387150854739154</v>
+        <v>-1.201240251157611</v>
       </c>
       <c r="D2">
-        <v>0.1655798715418744</v>
+        <v>0.2424312311748693</v>
       </c>
       <c r="E2">
         <v>0.5274934791408205</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.5479008683392637</v>
+        <v>-0.4761318269869861</v>
       </c>
       <c r="D3">
-        <v>0.5838328027673614</v>
+        <v>0.6386748758971776</v>
       </c>
       <c r="E3">
         <v>0.5274934791408205</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.01579673558960056</v>
+        <v>-0.0181283526304291</v>
       </c>
       <c r="D4">
-        <v>0.9873984295372407</v>
+        <v>0.9856998674017512</v>
       </c>
       <c r="E4">
         <v>0.5274934791408205</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.4177020432851795</v>
+        <v>-0.4319302922328079</v>
       </c>
       <c r="D5">
-        <v>0.6762183873445773</v>
+        <v>0.6699958572030436</v>
       </c>
       <c r="E5">
         <v>0.5274934791408205</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.862979400100275</v>
+        <v>0.7399106977444225</v>
       </c>
       <c r="D6">
-        <v>0.3882720423812474</v>
+        <v>0.467177227960986</v>
       </c>
       <c r="E6">
         <v>0.5524269426331516</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.268424095182414</v>
+        <v>1.315634555178723</v>
       </c>
       <c r="D7">
-        <v>0.2048223800363731</v>
+        <v>0.2018431498612916</v>
       </c>
       <c r="E7">
         <v>0.5524269426331516</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.127143588740207</v>
+        <v>1.091240211390546</v>
       </c>
       <c r="D8">
-        <v>0.2598428325807833</v>
+        <v>0.2869746866462242</v>
       </c>
       <c r="E8">
         <v>0.5524269426331516</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.4318504294860215</v>
+        <v>0.4341750947777487</v>
       </c>
       <c r="D9">
-        <v>0.6659055736229167</v>
+        <v>0.6683896874721351</v>
       </c>
       <c r="E9">
         <v>0.5350528871897132</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.07698023921543687</v>
+        <v>0.05886137101983351</v>
       </c>
       <c r="D10">
-        <v>0.9386484369508314</v>
+        <v>0.9535939224096199</v>
       </c>
       <c r="E10">
         <v>0.5350528871897132</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.3569406363025287</v>
+        <v>-0.337060912593874</v>
       </c>
       <c r="D11">
-        <v>0.7211811017138898</v>
+        <v>0.7392654222132631</v>
       </c>
       <c r="E11">
         <v>0.5277460473360644</v>
